--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3726326.191103722</v>
+        <v>3829737.927067804</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498525</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7447399.27075612</v>
+        <v>7412369.549483364</v>
       </c>
     </row>
     <row r="11">
@@ -665,16 +667,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>395.6096997429865</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>238.9885296557815</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.817218682477</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734075887</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>101.975320968665</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>71.01723617682092</v>
+        <v>96.35242040983813</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004739</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +898,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>286.9936949083701</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -950,19 +952,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>75.08194820049401</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>111.7977692028549</v>
       </c>
       <c r="D7" t="n">
-        <v>41.02435592407898</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>78.96084923364909</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>190.1145207050185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>67.3370254636924</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>55.34574219272962</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1350,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="12">
@@ -1528,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>92.58181139165762</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206845</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="15">
@@ -1765,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>97.54185816719648</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>79.70119244397701</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722639</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2005,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>18.50276072357119</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560554</v>
       </c>
     </row>
     <row r="21">
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>125.8152577453149</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2299,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>229.5237858443083</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>198.0998442038085</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634816</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>26.05480806223585</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>20.25102067617374</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652687</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808192</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>139.1630968205468</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545298</v>
+        <v>83.53432244437123</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>120.1447214650597</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808203</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096047</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972055</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>261.8890829640565</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261736</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652577</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808192</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>216.8436125514024</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187854</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428269</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>204.1034810317286</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1990.120246683345</v>
+        <v>1513.341883274785</v>
       </c>
       <c r="C2" t="n">
-        <v>1621.157729742934</v>
+        <v>1144.379366334374</v>
       </c>
       <c r="D2" t="n">
-        <v>1262.892031136183</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="E2" t="n">
-        <v>877.103778537939</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F2" t="n">
-        <v>466.1178737483314</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296683</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993393</v>
+        <v>2973.912597928404</v>
       </c>
       <c r="V2" t="n">
-        <v>3119.628073993393</v>
+        <v>2642.849710584833</v>
       </c>
       <c r="W2" t="n">
-        <v>2766.859418723279</v>
+        <v>2290.081055314718</v>
       </c>
       <c r="X2" t="n">
-        <v>2766.859418723279</v>
+        <v>2290.081055314718</v>
       </c>
       <c r="Y2" t="n">
-        <v>2376.720086747467</v>
+        <v>1899.941723338907</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686075</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080134</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986308</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158125</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438128</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992582</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410636</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886739</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533339</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>752.1025618495183</v>
+        <v>730.5823923378716</v>
       </c>
       <c r="C4" t="n">
-        <v>583.1663789216115</v>
+        <v>561.6462094099647</v>
       </c>
       <c r="D4" t="n">
-        <v>433.0497395092757</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E4" t="n">
-        <v>285.1366459268826</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F4" t="n">
-        <v>138.2466984289722</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>138.2466984289722</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>138.2466984289722</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279951</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U4" t="n">
-        <v>1416.425065783662</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="V4" t="n">
-        <v>1161.740577577775</v>
+        <v>1361.012987209659</v>
       </c>
       <c r="W4" t="n">
-        <v>1161.740577577775</v>
+        <v>1361.012987209659</v>
       </c>
       <c r="X4" t="n">
-        <v>933.7510266797581</v>
+        <v>1133.023436311641</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.7510266797581</v>
+        <v>912.2308571681114</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2249.271807195286</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C5" t="n">
-        <v>1880.309290254875</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1522.043591648124</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4598,19 +4600,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520488</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520488</v>
+        <v>2348.903689733083</v>
       </c>
       <c r="X5" t="n">
-        <v>2635.871647259408</v>
+        <v>2348.903689733083</v>
       </c>
       <c r="Y5" t="n">
-        <v>2635.871647259408</v>
+        <v>1958.764357757271</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>590.8070661251691</v>
+        <v>477.4688890257555</v>
       </c>
       <c r="C7" t="n">
-        <v>421.8708831972622</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4321398396066</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4756,19 +4758,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X7" t="n">
-        <v>590.8070661251691</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="Y7" t="n">
-        <v>590.8070661251691</v>
+        <v>659.1173538559952</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1678.62132134232</v>
+        <v>1628.17820394412</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4826,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410101</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W8" t="n">
-        <v>2630.721789066531</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X8" t="n">
-        <v>2257.256030805451</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y8" t="n">
-        <v>2065.221161406442</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4880,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>684.4520072430315</v>
+        <v>526.6580321322147</v>
       </c>
       <c r="C10" t="n">
-        <v>684.4520072430315</v>
+        <v>526.6580321322147</v>
       </c>
       <c r="D10" t="n">
-        <v>534.3353678306958</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E10" t="n">
-        <v>534.3353678306958</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>387.4454203327854</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>219.7425837075043</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>1157.088627004002</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>929.0990761059845</v>
       </c>
       <c r="Y10" t="n">
-        <v>866.1004720732712</v>
+        <v>708.3064969624544</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L12" t="n">
-        <v>710.2486053718725</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>584.529540471266</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>436.6164468888729</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>436.6164468888729</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>269.4203476037529</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,64 +5266,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>710.2486053718725</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811332</v>
+        <v>634.927936255316</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532263</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2098.535416025753</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1809.460189369951</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1554.775701164064</v>
       </c>
       <c r="W16" t="n">
-        <v>1353.195110654903</v>
+        <v>1265.358531127103</v>
       </c>
       <c r="X16" t="n">
-        <v>1353.195110654903</v>
+        <v>1037.368980229086</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.402531511373</v>
+        <v>816.5764010855557</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615669</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334542</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.78353867329</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667835</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.01152569472</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740628</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385794</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385794</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385794</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>2490.323821483083</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>2490.323821483083</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>3087.702309109634</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>3715.300272664241</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>4267.210002903528</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301209</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022983</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566168</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334425</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606223</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400691</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635737</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,64 +5740,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111728</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>590.9096564684979</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1815.886107649657</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327643</v>
+        <v>3110.333886317439</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048574</v>
+        <v>2941.397703389533</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925216</v>
+        <v>2941.397703389533</v>
       </c>
       <c r="E22" t="n">
-        <v>444.7013164925216</v>
+        <v>2793.484609807139</v>
       </c>
       <c r="F22" t="n">
-        <v>444.7013164925216</v>
+        <v>2646.594662309229</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>2479.398563024109</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>2337.686731866307</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866307</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296631</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.61201282217</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.01060699811</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729145</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389153</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098138</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671697</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>4507.978318053501</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>4288.376853076442</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>3999.30162642064</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>3744.617138214753</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>3512.774930291209</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>3512.774930291209</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>3291.982351147679</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578602</v>
@@ -6142,55 +6144,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>944.1833428807391</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,64 +6214,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K27" t="n">
-        <v>139.234765840794</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L27" t="n">
-        <v>634.5603720565526</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1231.938859683105</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>3173.601046153954</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>3173.601046153954</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474262</v>
+        <v>3023.484406741618</v>
       </c>
       <c r="E28" t="n">
-        <v>261.8464821474262</v>
+        <v>2875.571313159225</v>
       </c>
       <c r="F28" t="n">
-        <v>261.8464821474262</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866306</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.92275029663</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822169</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998109</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729144</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389152</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098137</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671696</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650997</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.932614305902</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>4221.331149328843</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>3932.255922673041</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>3911.800346232461</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>3622.383176195501</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>3394.393625297484</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>3173.601046153954</v>
       </c>
     </row>
     <row r="29">
@@ -6458,7 +6460,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
@@ -6467,13 +6469,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6543,25 +6545,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>139.234765840794</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>634.5603720565526</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319331</v>
+        <v>3195.647281583948</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656825</v>
+        <v>3026.711098656041</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150031</v>
+        <v>2876.594459243706</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942664</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580124</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345486</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384031</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>4080.762364661622</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>3826.077876455735</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>3826.077876455735</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>3598.088325557718</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>3377.295746414188</v>
       </c>
     </row>
     <row r="32">
@@ -6689,22 +6691,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6716,31 +6718,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>904.4616873845483</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M33" t="n">
-        <v>1501.8401750111</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.438138565707</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>633.992644467967</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="35">
@@ -6926,19 +6928,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,34 +6952,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2104.342122433613</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2527.965271928681</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>1052.829365488568</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>883.8931825606608</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>733.776543148325</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>585.8634495659319</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>438.9735020680215</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954148</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380727</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311322</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1972.677130397315</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1683.259960360355</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1455.270409462337</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1234.477830318807</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7251,28 +7253,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656815</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311326</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1169.166938412398</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>941.1773875143809</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="41">
@@ -7400,16 +7402,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7430,31 +7432,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.311647517212</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>2252.221377756499</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319331</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656825</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>1978.028593415444</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.953366759641</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1688.953366759641</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1399.536196722681</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1171.546645824663</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>950.7540666811333</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,43 +7657,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2757.723669558404</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="C46" t="n">
-        <v>2588.787486630497</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D46" t="n">
-        <v>2588.787486630497</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E46" t="n">
-        <v>2588.787486630497</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F46" t="n">
-        <v>2588.787486630497</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G46" t="n">
-        <v>2421.591387345377</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866303</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866303</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296627</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822166</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998106</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729141</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.430181389149</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098134</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671693</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q46" t="n">
         <v>4690.833152398593</v>
@@ -7831,25 +7833,25 @@
         <v>4623.787448650995</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.932614305899</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.33114932884</v>
+        <v>4234.767481950618</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673038</v>
+        <v>3945.692255294816</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467151</v>
+        <v>3691.00776708893</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430191</v>
+        <v>3401.590597051969</v>
       </c>
       <c r="X46" t="n">
-        <v>3160.164713532174</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="Y46" t="n">
-        <v>2939.372134388644</v>
+        <v>3173.601046153952</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2.345373895096259e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23416,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>47.71290145456624</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23704,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>119.8635921600918</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>206.821805892614</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>268.0202376130198</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>39.70888054695396</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>56.99921249228265</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405078</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>20.48480914828625</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>231.8866226476543</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24847,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24892,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>147.0213775686973</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>62.89964020219794</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25324,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>45.3794168272091</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>24.63391537253455</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25837,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>0.5618377758858912</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.2291039219412</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>13.30196929555964</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>638347.4380250134</v>
+        <v>638347.4380250133</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>638347.4380250133</v>
+        <v>638347.4380250134</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>649116.1949100783</v>
+        <v>638347.4380250134</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>649116.1949100783</v>
+        <v>638347.4380250133</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>649116.1949100783</v>
+        <v>638347.4380250134</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>649116.1949100783</v>
+        <v>638347.4380250133</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>649116.1949100783</v>
+        <v>638347.4380250134</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>638347.4380250133</v>
+        <v>638347.4380250134</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176758</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176756</v>
+        <v>800515.7256176757</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176758</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="F2" t="n">
         <v>786967.9346977556</v>
       </c>
-      <c r="F2" t="n">
-        <v>786967.9346977553</v>
-      </c>
       <c r="G2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="H2" t="n">
         <v>786967.934697756</v>
@@ -26338,22 +26340,22 @@
         <v>786967.9346977558</v>
       </c>
       <c r="K2" t="n">
-        <v>800515.7256176771</v>
+        <v>786967.934697756</v>
       </c>
       <c r="L2" t="n">
-        <v>800515.7256176771</v>
+        <v>786967.9346977555</v>
       </c>
       <c r="M2" t="n">
-        <v>800515.7256176758</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="N2" t="n">
-        <v>800515.7256176759</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="O2" t="n">
-        <v>800515.7256176772</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977558</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>7.680563094254467e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363181</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319419</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="E4" t="n">
+        <v>13606.80811184269</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13606.80811184264</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13606.80811184265</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13606.80811184262</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13606.8081118427</v>
+      </c>
+      <c r="K4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="F4" t="n">
-        <v>13606.80811184279</v>
-      </c>
-      <c r="G4" t="n">
-        <v>13606.80811184281</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13606.8081118428</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="N4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="K4" t="n">
-        <v>21597.66737493622</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21597.66737493626</v>
-      </c>
-      <c r="M4" t="n">
-        <v>21597.66737493627</v>
-      </c>
-      <c r="N4" t="n">
-        <v>21597.66737493622</v>
-      </c>
       <c r="O4" t="n">
-        <v>21597.66737493627</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.8081118428</v>
+        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>107933.9405613932</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-728956.8035545041</v>
+        <v>-728956.8035545032</v>
       </c>
       <c r="C6" t="n">
-        <v>599787.9421730883</v>
+        <v>599787.9421730875</v>
       </c>
       <c r="D6" t="n">
-        <v>599787.9421730884</v>
+        <v>599787.9421730887</v>
       </c>
       <c r="E6" t="n">
         <v>346826.1349546505</v>
       </c>
       <c r="F6" t="n">
-        <v>672238.5967620054</v>
+        <v>672238.5967620058</v>
       </c>
       <c r="G6" t="n">
-        <v>672238.5967620057</v>
+        <v>672238.5967620061</v>
       </c>
       <c r="H6" t="n">
-        <v>672238.5967620061</v>
+        <v>672238.5967620062</v>
       </c>
       <c r="I6" t="n">
+        <v>672238.5967620058</v>
+      </c>
+      <c r="J6" t="n">
+        <v>454707.3943647287</v>
+      </c>
+      <c r="K6" t="n">
+        <v>672238.5967620063</v>
+      </c>
+      <c r="L6" t="n">
+        <v>672238.5967620056</v>
+      </c>
+      <c r="M6" t="n">
+        <v>587183.5688264939</v>
+      </c>
+      <c r="N6" t="n">
         <v>672238.5967620059</v>
       </c>
-      <c r="J6" t="n">
-        <v>454707.3943647285</v>
-      </c>
-      <c r="K6" t="n">
-        <v>656326.2243951936</v>
-      </c>
-      <c r="L6" t="n">
-        <v>675753.9423888255</v>
-      </c>
-      <c r="M6" t="n">
-        <v>590698.9144533123</v>
-      </c>
-      <c r="N6" t="n">
-        <v>675753.9423888244</v>
-      </c>
       <c r="O6" t="n">
-        <v>675753.9423888256</v>
+        <v>672238.5967620059</v>
       </c>
       <c r="P6" t="n">
         <v>672238.5967620061</v>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26787,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26960,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402292</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>15.31202591046696</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>12.00664230312046</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27540,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>46.64015204954737</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>25.33518423301717</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27591,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>94.93667516389166</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27670,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>274.159020516919</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>55.44905189577298</v>
       </c>
       <c r="D7" t="n">
-        <v>107.5911170941334</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27828,7 +27830,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>286.3120425373585</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27913,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>196.1234179510351</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,19 +28016,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>81.27844755451996</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>89.40927272159115</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,7 +28061,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28068,7 +28070,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-9.182398431361295e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-9.182398431361295e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-9.182398431361295e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-9.182398431361295e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-9.182398431361295e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-9.182398431361295e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-9.182398431361295e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-9.182398431361295e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-9.182398431361295e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-9.182398431361295e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-9.182398431361295e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-9.182398431361295e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-9.182398431361295e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-9.182398431361295e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28324,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-9.182398431361295e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-9.182398431361295e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-9.182398431361295e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-9.182398431361295e-14</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-9.182398431361295e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28381,10 +28383,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-9.182398431361295e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-9.182398431361295e-14</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28393,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-9.182398431361295e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28570,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-2.103206497849897e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28801,13 +28803,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-9.182398431361295e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-9.182398431361295e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-9.182398431361295e-14</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -28816,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-9.182398431361295e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-9.182398431361295e-14</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-9.182398431361295e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-9.182398431361295e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-9.182398431361295e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-9.182398431361295e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-1.818989403545856e-12</v>
       </c>
     </row>
     <row r="21">
@@ -29272,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003807</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.356529362319</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574989</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095019</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781687</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806945</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.6385688179853</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752252</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.647816683792</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970247</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238314</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898492</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742015</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071221</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553034</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.39664015211229</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31601,7 +31603,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>610.054682604365</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>265.544265239924</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043748</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>272.7569329364655</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>169.2687847673334</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>399.1902208908123</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32470,34 +32472,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663295</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,13 +32542,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
@@ -32555,34 +32557,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>223.6976288294623</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745949</v>
       </c>
       <c r="N24" t="n">
-        <v>639.8517673857162</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>183.7183104822601</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33263,10 +33265,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>183.7183104822601</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>592.1874941409601</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>468.9317632522997</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>270.4557004614709</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>165.3312853305614</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33971,7 +33973,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,22 +33982,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>361.5531172119654</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>459.1396705889915</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>165.2255134509767</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34381,7 +34383,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.586862646002</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34442,31 +34444,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687123</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554002</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923317</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302262</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193714</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037192</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222461</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597696</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340051</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004588</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306614</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443194</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226396</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789354</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597692</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>471.5003028244908</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>134.2025531565907</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902427</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>134.2025531565913</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>27.13475084531504</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>261.3487819164533</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396432</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36203,22 +36205,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>81.10138438501788</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="N24" t="n">
-        <v>508.510055302383</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>45.87687150790109</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36911,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>45.87687150790109</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>453.6331143610859</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>330.3773834724255</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>136.4812930471406</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>25.34951124453992</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,22 +37630,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>219.4190832899471</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>191.358233988438</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>320.5852908091173</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>31.25110603664647</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38029,7 +38031,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243153</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38090,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3829737.927067804</v>
+        <v>3825725.317053811</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>370.0648965483574</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>238.9885296557815</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734075887</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>101.975320968665</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983813</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004739</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>71.67037196991681</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>196.6522795239222</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>75.08194820049401</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>111.7977692028549</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>207.8637492714481</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>78.96084923364909</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>275.1139075034161</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>67.3370254636924</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>51.06561173382029</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>92.58181139165762</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206845</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>97.54185816719648</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722639</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>18.50276072357119</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2083,22 +2083,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560554</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>229.5237858443083</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,16 +2535,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>198.0998442038085</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634816</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>20.25102067617374</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U31" t="n">
-        <v>139.1630968205468</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>83.53432244437123</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>120.1447214650597</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>261.8890829640565</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,13 +3906,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>124.8808320771207</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3951,10 +3951,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>216.8436125514024</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4146,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>204.1034810317286</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1513.341883274785</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="C2" t="n">
-        <v>1144.379366334374</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>786.1136677276231</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>786.1136677276231</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>375.1277629380156</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218338</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296683</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136264</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2973.912597928404</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.849710584833</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2290.081055314718</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2290.081055314718</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1899.941723338907</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158125</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992582</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410636</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886739</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533339</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>730.5823923378716</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>561.6462094099647</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>458.6408346941415</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>310.7277411117484</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279951</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415546</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1615.697475415546</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V4" t="n">
-        <v>1361.012987209659</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W4" t="n">
-        <v>1361.012987209659</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X4" t="n">
-        <v>1133.023436311641</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y4" t="n">
-        <v>912.2308571681114</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1572.164517693149</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881544</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4567,7 +4567,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4579,10 +4579,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296686</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3016.676486950485</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2685.613599606915</v>
       </c>
       <c r="W5" t="n">
-        <v>2348.903689733083</v>
+        <v>2332.8449443368</v>
       </c>
       <c r="X5" t="n">
-        <v>2348.903689733083</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="Y5" t="n">
-        <v>1958.764357757271</v>
+        <v>1959.379186075721</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4649,49 +4649,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>477.4688890257555</v>
+        <v>797.4834000772721</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269122</v>
+        <v>628.5472171493652</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1169.327103036486</v>
+        <v>1717.33116498602</v>
       </c>
       <c r="W7" t="n">
-        <v>879.9099329995254</v>
+        <v>1427.913994949059</v>
       </c>
       <c r="X7" t="n">
-        <v>879.9099329995254</v>
+        <v>1199.924444051042</v>
       </c>
       <c r="Y7" t="n">
-        <v>659.1173538559952</v>
+        <v>979.1318649075118</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1628.17820394412</v>
+        <v>1506.363819949361</v>
       </c>
       <c r="C8" t="n">
-        <v>1548.419770374778</v>
+        <v>1137.401303008949</v>
       </c>
       <c r="D8" t="n">
-        <v>1190.154071768027</v>
+        <v>779.1356044021989</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>393.3473518039546</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>386.4018510547511</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269322</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008242</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y8" t="n">
-        <v>2014.778044008242</v>
+        <v>1892.963660013483</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>526.6580321322147</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C10" t="n">
-        <v>526.6580321322147</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D10" t="n">
-        <v>458.6408346941415</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1446.505797040963</v>
+        <v>1875.713122094735</v>
       </c>
       <c r="V10" t="n">
-        <v>1446.505797040963</v>
+        <v>1621.028633888848</v>
       </c>
       <c r="W10" t="n">
-        <v>1157.088627004002</v>
+        <v>1331.611463851887</v>
       </c>
       <c r="X10" t="n">
-        <v>929.0990761059845</v>
+        <v>1103.62191295387</v>
       </c>
       <c r="Y10" t="n">
-        <v>708.3064969624544</v>
+        <v>882.8293338103399</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,25 +5029,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5056,34 +5056,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468472</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468472</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.6461798836018</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C13" t="n">
-        <v>734.6461798836018</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D13" t="n">
-        <v>584.529540471266</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>436.6164468888729</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>436.6164468888729</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>269.4203476037529</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138415</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,19 +5266,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5287,7 +5287,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5299,31 +5299,31 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2206.395003844405</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2098.535416025753</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1809.460189369951</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1554.775701164064</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1265.358531127103</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1037.368980229086</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>816.5764010855557</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5518,7 +5518,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5530,37 +5530,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615669</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334542</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.78353867329</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667835</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.01152569472</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740628</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385794</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385794</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2231.588527385794</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>2490.323821483083</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L18" t="n">
-        <v>2490.323821483083</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M18" t="n">
-        <v>3087.702309109634</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
-        <v>3715.300272664241</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>4267.210002903528</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>4690.833152398596</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398596</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398596</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301209</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022983</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566168</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334425</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606223</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400691</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635737</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>615.644930552589</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>465.5282911402533</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1415.011708352283</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1187.022157454266</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,70 +5731,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192603</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111728</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.5840502527391</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>95.5840502527391</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>590.9096564684979</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.28814409505</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1815.886107649657</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3110.333886317439</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>2941.397703389533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>2941.397703389533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>2793.484609807139</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>2646.594662309229</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024109</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866307</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866307</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296631</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.61201282217</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.01060699811</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729145</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389153</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098138</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671697</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398596</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398596</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053501</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.376853076442</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3999.30162642064</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3744.617138214753</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3512.774930291209</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3512.774930291209</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3291.982351147679</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5983,28 +5983,28 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797193</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>762.5348780504994</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611859</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>944.1833428807391</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6220,58 +6220,58 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3173.601046153954</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741618</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159225</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661314</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376194</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822169</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998109</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729144</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389152</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098137</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671696</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650997</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305902</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328843</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673041</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>3911.800346232461</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>3622.383176195501</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>3394.393625297484</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>3173.601046153954</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3195.647281583948</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>3026.711098656041</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>2876.594459243706</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>4080.762364661622</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>3826.077876455735</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>3826.077876455735</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>3598.088325557718</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>3377.295746414188</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,25 +6688,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6718,31 +6718,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>802.9288273958739</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C34" t="n">
-        <v>633.992644467967</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>633.992644467967</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510509</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304622</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.359422267661</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.369871369644</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.5772922261136</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6925,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>924.8344286397185</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1552.432392194325</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2104.342122433613</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2527.965271928681</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1052.829365488568</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>883.8931825606608</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>733.776543148325</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>585.8634495659319</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>438.9735020680215</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2227.361618603202</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1972.677130397315</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1683.259960360355</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1455.270409462337</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1234.477830318807</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>538.7363435406111</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1169.166938412398</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>941.1773875143809</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>720.3848083708508</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.7540666811333</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8178837532264</v>
+        <v>888.6771326738537</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408906</v>
+        <v>738.560493261518</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>590.6473996791249</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>443.7574521812145</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578602</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1978.028593415444</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.953366759641</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.953366759641</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W43" t="n">
-        <v>1399.536196722681</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X43" t="n">
-        <v>1171.546645824663</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y43" t="n">
-        <v>950.7540666811333</v>
+        <v>1239.261780432</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7730,25 +7730,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3173.601046153952</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>3173.601046153952</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741616</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159223</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4234.767481950618</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>3945.692255294816</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3691.00776708893</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3401.590597051969</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3173.601046153952</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>3173.601046153952</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.345373895096259e-12</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>47.71290145456624</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>119.8635921600918</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>268.0202376130198</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>56.99921249228265</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>20.48480914828625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>231.8866226476543</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,16 +24891,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U31" t="n">
-        <v>147.0213775686973</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>62.89964020219794</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>45.3794168272091</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.63391537253455</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>40.6433062151481</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.5618377758858912</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>13.30196929555964</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>638347.4380250134</v>
+        <v>638347.4380250133</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>638347.4380250134</v>
+        <v>638347.4380250133</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>638347.4380250133</v>
+        <v>638347.4380250134</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>638347.4380250134</v>
+        <v>638347.4380250133</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>638347.4380250134</v>
+        <v>638347.4380250133</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176759</v>
+        <v>800515.725617676</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176757</v>
+        <v>800515.7256176756</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176759</v>
+        <v>800515.7256176756</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="F2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="G2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="F2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="G2" t="n">
-        <v>786967.9346977558</v>
-      </c>
       <c r="H2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977555</v>
       </c>
       <c r="I2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="J2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="L2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="M2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="N2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="L2" t="n">
-        <v>786967.9346977555</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="O2" t="n">
-        <v>786967.9346977557</v>
-      </c>
       <c r="P2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.934697756</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>7.680563094254467e-10</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319419</v>
+        <v>92793.84288319408</v>
       </c>
       <c r="C4" t="n">
         <v>92793.84288319404</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.842883194</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184269</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184264</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184265</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184262</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.8081118427</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
+        <v>13606.8081118428</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13606.8081118428</v>
+      </c>
+      <c r="M4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13606.80811184275</v>
       </c>
       <c r="N4" t="n">
         <v>13606.80811184274</v>
@@ -26459,7 +26459,7 @@
         <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-728956.8035545032</v>
+        <v>-728956.8035545037</v>
       </c>
       <c r="C6" t="n">
-        <v>599787.9421730875</v>
+        <v>599787.942173088</v>
       </c>
       <c r="D6" t="n">
-        <v>599787.9421730887</v>
+        <v>599787.9421730883</v>
       </c>
       <c r="E6" t="n">
-        <v>346826.1349546505</v>
+        <v>346478.7557002939</v>
       </c>
       <c r="F6" t="n">
-        <v>672238.5967620058</v>
+        <v>671891.2175076492</v>
       </c>
       <c r="G6" t="n">
-        <v>672238.5967620061</v>
+        <v>671891.217507649</v>
       </c>
       <c r="H6" t="n">
-        <v>672238.5967620062</v>
+        <v>671891.2175076487</v>
       </c>
       <c r="I6" t="n">
-        <v>672238.5967620058</v>
+        <v>671891.217507649</v>
       </c>
       <c r="J6" t="n">
-        <v>454707.3943647287</v>
+        <v>454360.0151103713</v>
       </c>
       <c r="K6" t="n">
-        <v>672238.5967620063</v>
+        <v>671891.2175076487</v>
       </c>
       <c r="L6" t="n">
-        <v>672238.5967620056</v>
+        <v>671891.2175076491</v>
       </c>
       <c r="M6" t="n">
-        <v>587183.5688264939</v>
+        <v>586836.1895721374</v>
       </c>
       <c r="N6" t="n">
-        <v>672238.5967620059</v>
+        <v>671891.2175076491</v>
       </c>
       <c r="O6" t="n">
-        <v>672238.5967620059</v>
+        <v>671891.2175076492</v>
       </c>
       <c r="P6" t="n">
-        <v>672238.5967620061</v>
+        <v>671891.2175076492</v>
       </c>
     </row>
   </sheetData>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>12.66894511512317</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292606</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>12.00664230312046</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>46.64015204954737</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356961</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>54.34289243497975</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>274.159020516919</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>55.44905189577298</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>44.27389405237994</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>286.3120425373585</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>135.8078181500373</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>81.27844755451996</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,16 +28061,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>235.1462264717926</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-9.182398431361295e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-9.182398431361295e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-9.182398431361295e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-9.182398431361295e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-9.182398431361295e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.182398431361295e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-9.182398431361295e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-9.182398431361295e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-9.182398431361295e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-9.182398431361295e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-9.182398431361295e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-9.182398431361295e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-9.182398431361295e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-9.182398431361295e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9.182398431361295e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-9.182398431361295e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-9.182398431361295e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-9.182398431361295e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-9.182398431361295e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28383,10 +28383,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-9.182398431361295e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-9.182398431361295e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-9.182398431361295e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28572,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28803,13 +28803,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-9.182398431361295e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-9.182398431361295e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-9.182398431361295e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-9.182398431361295e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-9.182398431361295e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-9.182398431361295e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-9.182398431361295e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-9.182398431361295e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-9.182398431361295e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-1.818989403545856e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29808,7 +29808,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.181774678116199e-12</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974798</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003807</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095019</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781687</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970247</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,46 +31199,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098818</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31603,7 +31603,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>265.544265239924</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043748</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>169.2687847673334</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>211.5147800288493</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>399.1902208908123</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>732.4825987614915</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663295</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>223.6976288294623</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>377.6350660745949</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33259,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>270.4557004614709</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>165.3312853305614</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,10 +33970,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33982,19 +33982,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>361.5531172119654</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34210,28 +34210,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>459.1396705889915</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34450,28 +34450,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554002</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882187</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193714</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037192</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222461</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597696</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013289</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306614</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443194</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226396</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789354</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>134.2025531565907</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902427</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>27.13475084531504</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>77.5403726145191</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>261.3487819164533</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>590.3485648394733</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396432</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>81.10138438501788</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>235.5010321525766</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>453.6331143610859</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>136.4812930471406</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>25.34951124453992</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37630,19 +37630,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>219.4190832899471</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37858,28 +37858,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>320.5852908091173</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38098,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3825725.317053811</v>
+        <v>3827485.847356596</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>370.0648965483574</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>223.6073936510854</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>71.67037196991681</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347168</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>109.3296738389799</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>196.6522795239222</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>52.07852635745762</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>207.8637492714481</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>275.1139075034161</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>177.2979137777568</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1302,13 +1302,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>71.67037196991669</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>51.06561173382029</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695709</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.8253826161906772</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>20.13408744447803</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>103.8784673763408</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695618</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U34" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417092</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428216</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410136</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>124.8808320771207</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4143,7 +4143,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>179.2499669408062</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>934.5673701373257</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="C2" t="n">
-        <v>934.5673701373257</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
         <v>934.5673701373257</v>
@@ -4327,10 +4327,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810555</v>
@@ -4342,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1904.487375535336</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686067</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064742</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080121</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986294</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
         <v>111.6347488791189</v>
@@ -4521,19 +4521,19 @@
         <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V4" t="n">
-        <v>1600.215744761477</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W4" t="n">
-        <v>1310.798574724517</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X4" t="n">
-        <v>1082.809023826499</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.0164446829692</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1959.379186075721</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1789.055335321088</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1430.789636714338</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1045.001384116093</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>634.0154793264858</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>218.9430291714822</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3016.676486950485</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2685.613599606915</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W5" t="n">
-        <v>2332.8449443368</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>1959.379186075721</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y5" t="n">
-        <v>1959.379186075721</v>
+        <v>2158.0178522615</v>
       </c>
     </row>
     <row r="6">
@@ -4637,19 +4637,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4658,7 +4658,7 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>797.4834000772721</v>
+        <v>752.7622949738575</v>
       </c>
       <c r="C7" t="n">
-        <v>628.5472171493652</v>
+        <v>583.8261120459506</v>
       </c>
       <c r="D7" t="n">
-        <v>478.4305777370295</v>
+        <v>433.7094726336148</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>433.7094726336148</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>286.8195251357045</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>119.1166885104234</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>119.1166885104234</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1717.33116498602</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W7" t="n">
-        <v>1427.913994949059</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>1199.924444051042</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y7" t="n">
-        <v>979.1318649075118</v>
+        <v>934.4107598040972</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1506.363819949361</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C8" t="n">
-        <v>1137.401303008949</v>
+        <v>1453.66971909763</v>
       </c>
       <c r="D8" t="n">
-        <v>779.1356044021989</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E8" t="n">
-        <v>393.3473518039546</v>
+        <v>709.6157678926356</v>
       </c>
       <c r="F8" t="n">
-        <v>386.4018510547511</v>
+        <v>298.6298631030281</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>287.5978169884286</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250374</v>
+        <v>2972.837166339055</v>
       </c>
       <c r="X8" t="n">
-        <v>2283.102991989294</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y8" t="n">
-        <v>1892.963660013483</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="9">
@@ -4859,34 +4859,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>701.1808689801002</v>
+        <v>752.7622949738575</v>
       </c>
       <c r="C10" t="n">
-        <v>532.2446860521933</v>
+        <v>583.8261120459506</v>
       </c>
       <c r="D10" t="n">
-        <v>382.1280466398576</v>
+        <v>433.7094726336148</v>
       </c>
       <c r="E10" t="n">
-        <v>234.2149530574645</v>
+        <v>285.7963790512217</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>138.9064315533114</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>138.9064315533114</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1875.713122094735</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V10" t="n">
-        <v>1621.028633888848</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W10" t="n">
-        <v>1331.611463851887</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1103.62191295387</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y10" t="n">
-        <v>882.8293338103399</v>
+        <v>934.4107598040972</v>
       </c>
     </row>
     <row r="11">
@@ -5017,73 +5017,73 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.0655846733346</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C13" t="n">
-        <v>411.1294017454277</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.129363765926</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2263.274529420831</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>2043.673064443772</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>1754.597837787969</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>1499.913349582082</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W13" t="n">
-        <v>1210.496179545122</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X13" t="n">
-        <v>982.5066286471044</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y13" t="n">
-        <v>761.7140495035743</v>
+        <v>963.0028863963103</v>
       </c>
     </row>
     <row r="14">
@@ -5272,37 +5272,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L15" t="n">
-        <v>429.5088224239596</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M15" t="n">
-        <v>1026.887310050512</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1654.485273605118</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O15" t="n">
-        <v>2206.395003844405</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5509,19 +5509,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075824</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5530,16 +5530,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,22 +5588,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N18" t="n">
         <v>1307.627092998424</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,19 +5764,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,22 +5825,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
         <v>2001.151557821488</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5980,10 +5980,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5992,46 +5992,46 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6363,16 +6363,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6384,31 +6384,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
         <v>2254.869721166297</v>
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,52 +6688,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,40 +6949,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="36">
@@ -7004,16 +7004,16 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1057.613315601761</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>888.6771326738537</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>738.560493261518</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>590.6473996791249</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>443.7574521812145</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1977.461080510508</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1688.043910473548</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1460.05435957553</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1239.261780432</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
         <v>93.81666304797187</v>
@@ -7848,10 +7848,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>65.54986409393101</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>198.4505659076167</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>41.54258064659049</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U34" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>57.2291039219417</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>40.6433062151481</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>638347.4380250134</v>
+        <v>638347.4380250133</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>638347.4380250134</v>
+        <v>638347.4380250133</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>800515.725617676</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176756</v>
+        <v>800515.7256176755</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176756</v>
+        <v>800515.725617676</v>
       </c>
       <c r="E2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977555</v>
       </c>
       <c r="G2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="H2" t="n">
-        <v>786967.9346977555</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="I2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="J2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="K2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="L2" t="n">
         <v>786967.934697756</v>
       </c>
       <c r="M2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="N2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="O2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="P2" t="n">
         <v>786967.9346977558</v>
-      </c>
-      <c r="O2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786967.934697756</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.461807356</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>92793.84288319413</v>
+      </c>
+      <c r="C4" t="n">
+        <v>92793.8428831941</v>
+      </c>
+      <c r="D4" t="n">
         <v>92793.84288319408</v>
       </c>
-      <c r="C4" t="n">
-        <v>92793.84288319404</v>
-      </c>
-      <c r="D4" t="n">
-        <v>92793.842883194</v>
-      </c>
       <c r="E4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.8081118427</v>
       </c>
       <c r="F4" t="n">
+        <v>13606.8081118427</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13606.8081118427</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13606.8081118427</v>
+      </c>
+      <c r="I4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="G4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13606.80811184274</v>
-      </c>
       <c r="J4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.8081118428</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.8081118428</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184285</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184274</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-728956.8035545037</v>
+        <v>-728956.8035545035</v>
       </c>
       <c r="C6" t="n">
-        <v>599787.942173088</v>
+        <v>599787.9421730881</v>
       </c>
       <c r="D6" t="n">
-        <v>599787.9421730883</v>
+        <v>599787.9421730887</v>
       </c>
       <c r="E6" t="n">
-        <v>346478.7557002939</v>
+        <v>346791.3970292142</v>
       </c>
       <c r="F6" t="n">
-        <v>671891.2175076492</v>
+        <v>672203.8588365703</v>
       </c>
       <c r="G6" t="n">
-        <v>671891.217507649</v>
+        <v>672203.8588365703</v>
       </c>
       <c r="H6" t="n">
-        <v>671891.2175076487</v>
+        <v>672203.8588365701</v>
       </c>
       <c r="I6" t="n">
-        <v>671891.217507649</v>
+        <v>672203.8588365703</v>
       </c>
       <c r="J6" t="n">
-        <v>454360.0151103713</v>
+        <v>454672.6564392932</v>
       </c>
       <c r="K6" t="n">
-        <v>671891.2175076487</v>
+        <v>672203.8588365704</v>
       </c>
       <c r="L6" t="n">
-        <v>671891.2175076491</v>
+        <v>672203.8588365705</v>
       </c>
       <c r="M6" t="n">
-        <v>586836.1895721374</v>
+        <v>587148.8309010586</v>
       </c>
       <c r="N6" t="n">
-        <v>671891.2175076491</v>
+        <v>672203.8588365706</v>
       </c>
       <c r="O6" t="n">
-        <v>671891.2175076492</v>
+        <v>672203.8588365703</v>
       </c>
       <c r="P6" t="n">
-        <v>671891.2175076492</v>
+        <v>672203.8588365705</v>
       </c>
     </row>
   </sheetData>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973566</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973566</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.66894511512317</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>141.6654981199222</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27593,10 +27593,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>214.5414662356961</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>94.35543628911122</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>185.2780905483406</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>54.34289243497975</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>44.2738940523805</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>44.27389405237994</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>135.8078181500373</v>
-      </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>117.3098506095637</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>73.0846429444041</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>235.1462264717926</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29808,7 +29808,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982882</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,37 +32080,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>483.3274636075158</v>
       </c>
       <c r="P15" t="n">
-        <v>211.5147800288493</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32323,31 +32323,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>752.2150000824574</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043702</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762699</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>340.7312191630714</v>
       </c>
       <c r="P15" t="n">
-        <v>77.5403726145191</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35971,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>620.8732879991242</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902381</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
